--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1877462.638263309</v>
+        <v>-1879878.157763454</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.72213276501977</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>288.01514568232</v>
       </c>
       <c r="X2" t="n">
-        <v>15.57753992060885</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>34.1005047385018</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>122.3623168480193</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.8158148503438</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>340.287379142879</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>187.5797976477835</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>22.58276652364323</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>119.7445168953991</v>
       </c>
       <c r="G8" t="n">
-        <v>372.7963880931385</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>57.3658753895635</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>158.8231646395103</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>82.57946083262053</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590263</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>49.16106505261713</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>2.451579104185657</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>122.8055297600566</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>168.2133719456949</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>61.96348919956068</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2287,7 +2287,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>145.4181264572038</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>118.945071656165</v>
       </c>
       <c r="D25" t="n">
-        <v>44.17970120049777</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,13 +2530,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2776,10 +2776,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704453</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335029</v>
       </c>
     </row>
     <row r="29">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124552</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433863</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797666</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1166.959449965771</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>797.9969330253591</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>439.7312344186087</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2685.308552871738</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2509.131065185908</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2290.496398157971</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2290.496398157971</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1959.4335108144</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1959.4335108144</v>
+        <v>1625.320969913277</v>
       </c>
       <c r="X2" t="n">
-        <v>1943.698622005704</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="Y2" t="n">
-        <v>1553.559290029893</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,25 +4413,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.5412816668486</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="C4" t="n">
-        <v>177.5412816668486</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="D4" t="n">
-        <v>177.5412816668486</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="E4" t="n">
-        <v>177.5412816668486</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="F4" t="n">
-        <v>177.5412816668486</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G4" t="n">
-        <v>177.5412816668486</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H4" t="n">
-        <v>177.5412816668486</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.1897464970883</v>
+        <v>2215.156415480938</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2014.892857925728</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="C5" t="n">
-        <v>1645.930340985316</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.664642378566</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="E5" t="n">
-        <v>901.8763897803212</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>551.1335832221223</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925728</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.892857925728</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>509.2375219814871</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>509.2375219814871</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>509.2375219814871</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V7" t="n">
-        <v>509.2375219814871</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W7" t="n">
-        <v>509.2375219814871</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1722.185086336932</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.22256939652</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D8" t="n">
-        <v>994.9568707897697</v>
+        <v>978.649099990522</v>
       </c>
       <c r="E8" t="n">
-        <v>994.9568707897697</v>
+        <v>592.8608473922777</v>
       </c>
       <c r="F8" t="n">
-        <v>583.9709660001622</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312744</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1722.185086336932</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>522.0369969642917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>522.0369969642917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>522.0369969642917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>522.0369969642917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.0369969642917</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5039,22 +5039,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5069,10 +5069,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,28 +5118,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>909.27315417834</v>
+        <v>720.69789701373</v>
       </c>
       <c r="C13" t="n">
-        <v>740.3369712504331</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D13" t="n">
-        <v>590.2203318380973</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E13" t="n">
-        <v>590.2203318380973</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374705</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>909.27315417834</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>909.27315417834</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.27315417834</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2209.609207880055</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3189.361480106701</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986038</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5358,7 +5358,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,28 +5367,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>589.4655956925556</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>589.4655956925556</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>439.3489562802198</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>291.4358626978267</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>291.4358626978267</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1953.867123575223</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1664.764256700866</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1410.079768494979</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1120.662598458018</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.662598458018</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.662598458018</v>
+        <v>771.1140605227953</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,19 +5519,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468568</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>533.5270475124405</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C19" t="n">
-        <v>409.4810578558177</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1696.600511947388</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1407.497645073032</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384228</v>
+        <v>1152.813156867145</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.957642384228</v>
+        <v>863.3959868301845</v>
       </c>
       <c r="X19" t="n">
-        <v>935.9680914862104</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.1755123426802</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.7429179653792</v>
+        <v>1014.315798559971</v>
       </c>
       <c r="C22" t="n">
-        <v>506.8067350374723</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
         <v>506.8067350374723</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="W22" t="n">
-        <v>1306.173512837166</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="X22" t="n">
-        <v>1078.183961939149</v>
+        <v>1416.756842533741</v>
       </c>
       <c r="Y22" t="n">
-        <v>857.3913827956189</v>
+        <v>1195.964263390211</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6078,28 +6078,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>623.0432015923082</v>
+        <v>533.5270475124405</v>
       </c>
       <c r="C25" t="n">
-        <v>454.1070186644013</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.473796464095</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X25" t="n">
-        <v>1025.484245566078</v>
+        <v>935.9680914862104</v>
       </c>
       <c r="Y25" t="n">
-        <v>804.6916664225479</v>
+        <v>715.1755123426802</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y26" t="n">
         <v>2760.816196754296</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001584</v>
@@ -6458,7 +6458,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6467,46 +6467,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D31" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G31" t="n">
         <v>244.2046325160447</v>
@@ -6616,7 +6616,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
@@ -6625,7 +6625,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,7 +6640,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
@@ -6652,19 +6652,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,19 +6698,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
         <v>463.8981507430894</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477364</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6895,13 +6895,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622689</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,19 +7014,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160444</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
         <v>145.4370786819758</v>
@@ -7096,7 +7096,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499223</v>
@@ -7114,7 +7114,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,19 +7172,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,40 +7251,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
         <v>667.0286178416717</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.746804049922</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7360,7 +7360,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195774</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,22 +7409,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7594,13 +7594,13 @@
         <v>2286.005723829557</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
         <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,19 +7725,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.961311426849</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7786,19 +7786,19 @@
         <v>667.0286178416721</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G46" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,28 +7807,28 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
         <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604458</v>
@@ -7840,7 +7840,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
         <v>1276.596863849073</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>119.6706498956056</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9167,22 +9167,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>344.7025836476839</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>11.64153443578789</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>317.5146261106137</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>11.64153443578746</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>288.0478149561034</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>42.75626980979193</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>61.22582303509301</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>10.56617338563611</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.60330494431891</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.423656459117524</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.84158719031072</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890344</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>116.8647432064111</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.0973701719835</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>44.44129133857122</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>51.33557733047428</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>105.2833318990672</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>141.1048718793872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>48.30174944246282</v>
       </c>
       <c r="D25" t="n">
-        <v>104.4357718177146</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-4.709566198145672e-13</v>
       </c>
     </row>
     <row r="29">
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1222609.579811246</v>
+        <v>1222609.579811245</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71413.33528089309</v>
+        <v>71413.33528089306</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
         <v>79416.35737739659</v>
@@ -26326,13 +26326,13 @@
         <v>79416.35737739661</v>
       </c>
       <c r="G2" t="n">
-        <v>79416.35737739663</v>
+        <v>79416.35737739656</v>
       </c>
       <c r="H2" t="n">
-        <v>79416.35737739661</v>
+        <v>79416.35737739662</v>
       </c>
       <c r="I2" t="n">
-        <v>79416.35737739661</v>
+        <v>79416.35737739659</v>
       </c>
       <c r="J2" t="n">
         <v>82104.17698642837</v>
@@ -26344,16 +26344,16 @@
         <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642833</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>214003.328487467</v>
+        <v>214003.3284874669</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.109294874</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>122328.8823008209</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="J4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="K4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="L4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="L4" t="n">
-        <v>33605.65329740901</v>
-      </c>
       <c r="M4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="N4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="N4" t="n">
-        <v>33605.65329740896</v>
-      </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723742.5042978819</v>
+        <v>-724009.7753405201</v>
       </c>
       <c r="C6" t="n">
         <v>-184103.5879341091</v>
@@ -26528,40 +26528,40 @@
         <v>-184103.5879341091</v>
       </c>
       <c r="E6" t="n">
-        <v>-762493.0671889136</v>
+        <v>-762560.2626791396</v>
       </c>
       <c r="F6" t="n">
-        <v>-35115.65319550697</v>
+        <v>-35182.84868573275</v>
       </c>
       <c r="G6" t="n">
-        <v>-35115.65319550694</v>
+        <v>-35182.84868573282</v>
       </c>
       <c r="H6" t="n">
-        <v>-35115.65319550699</v>
+        <v>-35182.84868573277</v>
       </c>
       <c r="I6" t="n">
-        <v>-35115.65319550698</v>
+        <v>-35182.84868573278</v>
       </c>
       <c r="J6" t="n">
-        <v>-265837.4758125497</v>
+        <v>-265837.4758125496</v>
       </c>
       <c r="K6" t="n">
-        <v>-51834.14732508279</v>
+        <v>-51834.14732508275</v>
       </c>
       <c r="L6" t="n">
-        <v>-51834.14732508273</v>
+        <v>-51834.14732508271</v>
       </c>
       <c r="M6" t="n">
-        <v>-181476.4621640275</v>
+        <v>-181476.4621640274</v>
       </c>
       <c r="N6" t="n">
-        <v>-51834.14732508269</v>
+        <v>-51834.14732508278</v>
       </c>
       <c r="O6" t="n">
-        <v>-89414.25661995681</v>
+        <v>-89414.25661995675</v>
       </c>
       <c r="P6" t="n">
-        <v>-51834.14732508261</v>
+        <v>-51834.14732508278</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>354.1535607578602</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>375.6717652704175</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>111.3205432844294</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.06023089136767</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>73.496790877916</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>24.56574130223538</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>263.9402318129478</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>287.1315288463123</v>
       </c>
       <c r="G8" t="n">
-        <v>40.9877819276565</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>228.9159988524142</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.358561997638116e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970236</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>559.0949758541251</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>658.5917657258321</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>801.1419126816272</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>883.6236994779107</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>563.9433698486994</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>856.4357419408404</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,10 +36847,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>262.4358392395069</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37069,25 +37069,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>826.9689307863301</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
